--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H2">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I2">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J2">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>541.6324293008078</v>
+        <v>759.4916374425708</v>
       </c>
       <c r="R2">
-        <v>541.6324293008078</v>
+        <v>6835.424736983137</v>
       </c>
       <c r="S2">
-        <v>0.134125817463229</v>
+        <v>0.1637707671058794</v>
       </c>
       <c r="T2">
-        <v>0.134125817463229</v>
+        <v>0.1637707671058794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H3">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I3">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J3">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>1129.244410846697</v>
+        <v>1289.356048416081</v>
       </c>
       <c r="R3">
-        <v>1129.244410846697</v>
+        <v>11604.20443574473</v>
       </c>
       <c r="S3">
-        <v>0.2796376685127885</v>
+        <v>0.2780265360560654</v>
       </c>
       <c r="T3">
-        <v>0.2796376685127885</v>
+        <v>0.2780265360560654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7001225567236</v>
+        <v>35.995988</v>
       </c>
       <c r="H4">
-        <v>31.7001225567236</v>
+        <v>107.987964</v>
       </c>
       <c r="I4">
-        <v>0.5337678059917443</v>
+        <v>0.5613901502831141</v>
       </c>
       <c r="J4">
-        <v>0.5337678059917443</v>
+        <v>0.561390150283114</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>484.6064136349379</v>
+        <v>554.6152643209734</v>
       </c>
       <c r="R4">
-        <v>484.6064136349379</v>
+        <v>4991.53737888876</v>
       </c>
       <c r="S4">
-        <v>0.1200043200157269</v>
+        <v>0.1195928471211693</v>
       </c>
       <c r="T4">
-        <v>0.1200043200157269</v>
+        <v>0.1195928471211693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H5">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J5">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>346.9709036042713</v>
+        <v>436.0489890824587</v>
       </c>
       <c r="R5">
-        <v>346.9709036042713</v>
+        <v>3924.440901742128</v>
       </c>
       <c r="S5">
-        <v>0.08592128824700102</v>
+        <v>0.09402615370228792</v>
       </c>
       <c r="T5">
-        <v>0.08592128824700102</v>
+        <v>0.09402615370228794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H6">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J6">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>723.3964076474233</v>
+        <v>740.2614772327872</v>
       </c>
       <c r="R6">
-        <v>723.3964076474233</v>
+        <v>6662.353295095086</v>
       </c>
       <c r="S6">
-        <v>0.179136494192057</v>
+        <v>0.1596241275197874</v>
       </c>
       <c r="T6">
-        <v>0.179136494192057</v>
+        <v>0.1596241275197874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3071669509729</v>
+        <v>20.666474</v>
       </c>
       <c r="H7">
-        <v>20.3071669509729</v>
+        <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="J7">
-        <v>0.3419328089326218</v>
+        <v>0.3223124461726698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>310.4399148485197</v>
+        <v>318.4227625615533</v>
       </c>
       <c r="R7">
-        <v>310.4399148485197</v>
+        <v>2865.80486305398</v>
       </c>
       <c r="S7">
-        <v>0.07687502649356377</v>
+        <v>0.06866216495059446</v>
       </c>
       <c r="T7">
-        <v>0.07687502649356377</v>
+        <v>0.06866216495059448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H8">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J8">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>126.1308328141347</v>
+        <v>157.3360441104498</v>
       </c>
       <c r="R8">
-        <v>126.1308328141347</v>
+        <v>1416.024396994048</v>
       </c>
       <c r="S8">
-        <v>0.03123409925870267</v>
+        <v>0.03392669960677641</v>
       </c>
       <c r="T8">
-        <v>0.03123409925870267</v>
+        <v>0.03392669960677642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H9">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J9">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>262.96899942765</v>
+        <v>267.1025856068196</v>
       </c>
       <c r="R9">
-        <v>262.96899942765</v>
+        <v>2403.923270461376</v>
       </c>
       <c r="S9">
-        <v>0.06511968284700405</v>
+        <v>0.05759588807072329</v>
       </c>
       <c r="T9">
-        <v>0.06511968284700405</v>
+        <v>0.0575958880707233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.3820595704566</v>
+        <v>7.456917333333333</v>
       </c>
       <c r="H10">
-        <v>7.3820595704566</v>
+        <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="J10">
-        <v>0.124299385075634</v>
+        <v>0.116297403544216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>112.8510909469553</v>
+        <v>114.8939203404089</v>
       </c>
       <c r="R10">
-        <v>112.8510909469553</v>
+        <v>1034.04528306368</v>
       </c>
       <c r="S10">
-        <v>0.02794560296992727</v>
+        <v>0.02477481586671632</v>
       </c>
       <c r="T10">
-        <v>0.02794560296992727</v>
+        <v>0.02477481586671633</v>
       </c>
     </row>
   </sheetData>
